--- a/Excel Hex Decoder/Kicksat Hex Conversion.xlsx
+++ b/Excel Hex Decoder/Kicksat Hex Conversion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Output</t>
   </si>
@@ -24,12 +24,6 @@
   </si>
   <si>
     <t xml:space="preserve">Input text string below: </t>
-  </si>
-  <si>
-    <t>(21 characters starting with S, 9 characters starting with T or 5 scharacters starting with R)</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>convert to decimal</t>
@@ -47,10 +41,10 @@
     <t>S numbers without leading zero's</t>
   </si>
   <si>
-    <t>(up to 21 characters starting with S, up to 9 characters starting with T or up to 5 scharacters starting with R)</t>
+    <t>(21 characters starting with S, 9 characters starting with T or 5 characters starting with R)</t>
   </si>
   <si>
-    <t>R</t>
+    <t>(up to 21 characters starting with S, up to 9 characters starting with T or up to 5 characters starting with R)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +458,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,62 +471,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -544,7 +504,7 @@
     </row>
     <row r="3" spans="1:26" s="11" customFormat="1" ht="0.95" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -559,7 +519,7 @@
       </c>
       <c r="E3" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
@@ -567,7 +527,7 @@
       </c>
       <c r="G3" s="12">
         <f>IF(G2="A",10,IF(G2="B",11,IF(G2="C",12,IF(G2="D",13,IF(G2="E",14,IF(G2="F",15,G2))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <f t="shared" ref="H3" si="1">IF(H2="A",10,IF(H2="B",11,IF(H2="C",12,IF(H2="D",13,IF(H2="E",14,IF(H2="F",15,H2))))))</f>
@@ -587,7 +547,7 @@
       </c>
       <c r="L3" s="12">
         <f t="shared" ref="L3:N3" si="4">IF(L2="A",10,IF(L2="B",11,IF(L2="C",12,IF(L2="D",13,IF(L2="E",14,IF(L2="F",15,L2))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="4"/>
@@ -599,19 +559,19 @@
       </c>
       <c r="O3" s="12">
         <f>IF(O2="A",10,IF(O2="B",11,IF(O2="C",12,IF(O2="D",13,IF(O2="E",14,IF(O2="F",15,O2))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="12">
         <f t="shared" ref="P3:R3" si="5">IF(P2="A",10,IF(P2="B",11,IF(P2="C",12,IF(P2="D",13,IF(P2="E",14,IF(P2="F",15,P2))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
@@ -624,32 +584,32 @@
     </row>
     <row r="4" spans="1:26" s="11" customFormat="1" ht="0.95" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="13">
         <f>(4096*C3)+(256*D3)+(16*E3)+F3</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12">
         <f>(4096*G3)+(256*H3)+(16*I3)+J3</f>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12">
         <f>(4096*K3)+(256*L3)+(16*M3)+N3</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12">
         <f>(4096*O3)+(256*P3)+(16*Q3)+R3</f>
-        <v>4369</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -665,11 +625,11 @@
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="0.95" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="12">
         <f>SUM(C5:F5)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C5" s="12" t="str">
         <f>IF(D2="",IF(B2&lt;&gt;"",C3,""),"")</f>
@@ -683,9 +643,9 @@
         <f>IF(F2="",IF(E2&lt;&gt;"",(256*C3)+(16*D3)+E3,""),"")</f>
         <v/>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="13" t="str">
         <f>IF(F2&lt;&gt;"",(4096*C3)+(256*D3)+(16*E3)+F3,"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -710,11 +670,11 @@
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="0.95" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12">
         <f>SUM(C6:F6)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C6" s="13" t="str">
         <f>IF(E2="",IF(B2&lt;&gt;"",C3,""),"")</f>
@@ -728,9 +688,9 @@
         <f>IF(I2="",IF(G2&lt;&gt;"",(256*C3)+(16*D3)+E3,""),"")</f>
         <v/>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="13" t="str">
         <f>IF(J2&lt;&gt;"",(4096*C3)+(256*D3)+(16*E3)+F3,"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="G6" s="13" t="str">
         <f>IF(E2="",IF(B2&lt;&gt;"",D3,""),"")</f>
@@ -744,13 +704,13 @@
         <f>IF(I2="",IF(G2&lt;&gt;"",(256*F3)+(16*G3)+H3,""),"")</f>
         <v/>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="13" t="str">
         <f>IF(J2&lt;&gt;"",(4096*G3)+(256*H3)+(16*I3)+J3,"")</f>
-        <v>4096</v>
+        <v/>
       </c>
       <c r="K6" s="12">
         <f>SUM(G6:J6)</f>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -770,25 +730,25 @@
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="0.95" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12">
         <f>C4</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12">
         <f>G4</f>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12">
         <f>K4</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -805,13 +765,13 @@
         <f>IF(R2="",IF(Q2&lt;&gt;"",((O3*256)+(P3*16)+Q3),""),"")</f>
         <v/>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="12" t="str">
         <f>IF(R2&lt;&gt;"",((O3*4096)+(P3*256)+(Q3*16)+R3),"")</f>
-        <v>4369</v>
+        <v/>
       </c>
       <c r="S7" s="12">
         <f>SUM(O7:R7)</f>
-        <v>4369</v>
+        <v>0</v>
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
@@ -906,42 +866,42 @@
       <c r="A14" s="14"/>
       <c r="B14" s="7" t="str">
         <f>IF(B2="S","Session Info: (No StartUps / Current Durn / Min Durn / Max Durn / Ave Durn) in seconds","")</f>
-        <v>Session Info: (No StartUps / Current Durn / Min Durn / Max Durn / Ave Durn) in seconds</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="str">
         <f>IF(B2="S","No Start Ups","")</f>
-        <v>No Start Ups</v>
-      </c>
-      <c r="D15" s="9">
+        <v/>
+      </c>
+      <c r="D15" s="9" t="str">
         <f>IF(B2="S",S7,"")</f>
-        <v>4369</v>
+        <v/>
       </c>
       <c r="E15" s="8" t="str">
         <f>IF(B2="S","Min Durn","")</f>
-        <v>Min Durn</v>
-      </c>
-      <c r="F15" s="9">
+        <v/>
+      </c>
+      <c r="F15" s="9" t="str">
         <f>IF(B2="S",C7,"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="G15" s="8" t="str">
         <f>IF(B2="S","Max Durn","")</f>
-        <v>Max Durn</v>
-      </c>
-      <c r="H15" s="9">
+        <v/>
+      </c>
+      <c r="H15" s="9" t="str">
         <f>IF(B2="S",G7,"")</f>
-        <v>4096</v>
+        <v/>
       </c>
       <c r="I15" s="8" t="str">
         <f>IF(B2="S","Ave Durn","")</f>
-        <v>Ave Durn</v>
-      </c>
-      <c r="J15" s="9">
+        <v/>
+      </c>
+      <c r="J15" s="9" t="str">
         <f>IF(B2="S",K7,"")</f>
-        <v>256</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1">
@@ -958,7 +918,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,25 +928,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1">
-      <c r="A2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15">
-        <v>3</v>
-      </c>
+      <c r="A2" s="15"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1014,15 +964,15 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:E3" si="0">IF(C2="A",10,IF(C2="B",11,IF(C2="C",12,IF(C2="D",13,IF(C2="E",14,IF(C2="F",15,C2))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <f>IF(F2="A",10,IF(F2="B",11,IF(F2="C",12,IF(F2="D",13,IF(F2="E",14,IF(F2="F",15,F2))))))</f>
@@ -1092,7 +1042,7 @@
     <row r="4" spans="1:21">
       <c r="B4" s="1">
         <f>(4096*B3)+(256*C3)+(16*D3)+E3</f>
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1138,7 +1088,7 @@
     <row r="6" spans="1:21" s="8" customFormat="1">
       <c r="A6" s="7" t="str">
         <f>IF(A2="R","Cosmic Ray analysis  number of bits corrupted","")</f>
-        <v>Cosmic Ray analysis  number of bits corrupted</v>
+        <v/>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1162,13 +1112,13 @@
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1">
-      <c r="A7" s="9">
+      <c r="A7" s="9" t="str">
         <f>IF(A2="R",B4,"")</f>
-        <v>291</v>
+        <v/>
       </c>
       <c r="B7" s="8" t="str">
         <f>IF(A2="R","bits corrupted","")</f>
-        <v>bits corrupted</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:21" s="8" customFormat="1">
